--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ctf1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H2">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I2">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J2">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N2">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q2">
-        <v>5.219021510606889</v>
+        <v>1.89459555103</v>
       </c>
       <c r="R2">
-        <v>46.971193595462</v>
+        <v>17.05135995927</v>
       </c>
       <c r="S2">
-        <v>0.05318789785159832</v>
+        <v>0.01463206875073285</v>
       </c>
       <c r="T2">
-        <v>0.05318789785159833</v>
+        <v>0.01463206875073284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H3">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I3">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J3">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P3">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q3">
-        <v>3.815095582998222</v>
+        <v>1.526034550194667</v>
       </c>
       <c r="R3">
-        <v>34.335860246984</v>
+        <v>13.734310951752</v>
       </c>
       <c r="S3">
-        <v>0.03888026016949629</v>
+        <v>0.01178565126594054</v>
       </c>
       <c r="T3">
-        <v>0.0388802601694963</v>
+        <v>0.01178565126594054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H4">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I4">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J4">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N4">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O4">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P4">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q4">
-        <v>1.271398924815778</v>
+        <v>1.812714275848667</v>
       </c>
       <c r="R4">
-        <v>11.442590323342</v>
+        <v>16.314428482638</v>
       </c>
       <c r="S4">
-        <v>0.01295703342174385</v>
+        <v>0.01399969502474178</v>
       </c>
       <c r="T4">
-        <v>0.01295703342174385</v>
+        <v>0.01399969502474178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H5">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I5">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J5">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N5">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O5">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P5">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q5">
-        <v>0.6726967159977778</v>
+        <v>0.36024176351</v>
       </c>
       <c r="R5">
-        <v>6.05427044398</v>
+        <v>3.24217587159</v>
       </c>
       <c r="S5">
-        <v>0.006855561745219726</v>
+        <v>0.002782167543726117</v>
       </c>
       <c r="T5">
-        <v>0.006855561745219727</v>
+        <v>0.002782167543726117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H6">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I6">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J6">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N6">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O6">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P6">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q6">
-        <v>2.405810043841111</v>
+        <v>0.7209471146213332</v>
       </c>
       <c r="R6">
-        <v>21.65229039457</v>
+        <v>6.488524031591999</v>
       </c>
       <c r="S6">
-        <v>0.02451800181357953</v>
+        <v>0.005567915400754989</v>
       </c>
       <c r="T6">
-        <v>0.02451800181357954</v>
+        <v>0.005567915400754989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.878037</v>
       </c>
       <c r="I7">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J7">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N7">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q7">
-        <v>23.65538825212655</v>
+        <v>21.46834488692833</v>
       </c>
       <c r="R7">
-        <v>212.898494269139</v>
+        <v>193.215103982355</v>
       </c>
       <c r="S7">
-        <v>0.2410759126853454</v>
+        <v>0.1658012435314778</v>
       </c>
       <c r="T7">
-        <v>0.2410759126853455</v>
+        <v>0.1658012435314777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.878037</v>
       </c>
       <c r="I8">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J8">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P8">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q8">
         <v>17.29204737926089</v>
@@ -948,10 +948,10 @@
         <v>155.628426413348</v>
       </c>
       <c r="S8">
-        <v>0.1762260699220948</v>
+        <v>0.1335474613337507</v>
       </c>
       <c r="T8">
-        <v>0.1762260699220949</v>
+        <v>0.1335474613337507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>1.878037</v>
       </c>
       <c r="I9">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J9">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N9">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O9">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P9">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q9">
-        <v>5.762657833222111</v>
+        <v>20.54051865276522</v>
       </c>
       <c r="R9">
-        <v>51.863920498999</v>
+        <v>184.864667874887</v>
       </c>
       <c r="S9">
-        <v>0.05872818411731149</v>
+        <v>0.1586355889728425</v>
       </c>
       <c r="T9">
-        <v>0.05872818411731151</v>
+        <v>0.1586355889728425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.878037</v>
       </c>
       <c r="I10">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J10">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N10">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O10">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P10">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q10">
-        <v>3.049020196701111</v>
+        <v>4.082029231781666</v>
       </c>
       <c r="R10">
-        <v>27.44118177031</v>
+        <v>36.738263086035</v>
       </c>
       <c r="S10">
-        <v>0.03107306119356097</v>
+        <v>0.03152574296369429</v>
       </c>
       <c r="T10">
-        <v>0.03107306119356098</v>
+        <v>0.03152574296369429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>1.878037</v>
       </c>
       <c r="I11">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J11">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N11">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O11">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P11">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q11">
-        <v>10.90441388912944</v>
+        <v>8.169311541723109</v>
       </c>
       <c r="R11">
-        <v>98.13972500216501</v>
+        <v>73.52380387550799</v>
       </c>
       <c r="S11">
-        <v>0.1111286571415422</v>
+        <v>0.06309205574755154</v>
       </c>
       <c r="T11">
-        <v>0.1111286571415423</v>
+        <v>0.06309205574755154</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H12">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I12">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J12">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N12">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q12">
-        <v>9.388560530098221</v>
+        <v>15.01627412042333</v>
       </c>
       <c r="R12">
-        <v>84.497044770884</v>
+        <v>135.14646708381</v>
       </c>
       <c r="S12">
-        <v>0.09568034878444956</v>
+        <v>0.1159715355556672</v>
       </c>
       <c r="T12">
-        <v>0.09568034878444959</v>
+        <v>0.1159715355556672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H13">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I13">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J13">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P13">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q13">
-        <v>6.863021303187555</v>
+        <v>12.09511608453955</v>
       </c>
       <c r="R13">
-        <v>61.76719172868799</v>
+        <v>108.856044760856</v>
       </c>
       <c r="S13">
-        <v>0.06994216737474908</v>
+        <v>0.09341126658978156</v>
       </c>
       <c r="T13">
-        <v>0.06994216737474911</v>
+        <v>0.09341126658978156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H14">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I14">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J14">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N14">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O14">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P14">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q14">
-        <v>2.287134808560444</v>
+        <v>14.36729567603489</v>
       </c>
       <c r="R14">
-        <v>20.584213277044</v>
+        <v>129.305661084314</v>
       </c>
       <c r="S14">
-        <v>0.02330856317095387</v>
+        <v>0.1109594382714353</v>
       </c>
       <c r="T14">
-        <v>0.02330856317095388</v>
+        <v>0.1109594382714353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H15">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I15">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J15">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N15">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O15">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P15">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q15">
-        <v>1.210122208484444</v>
+        <v>2.855221035196666</v>
       </c>
       <c r="R15">
-        <v>10.89109987636</v>
+        <v>25.69698931677</v>
       </c>
       <c r="S15">
-        <v>0.01233255242999309</v>
+        <v>0.02205103377489917</v>
       </c>
       <c r="T15">
-        <v>0.01233255242999309</v>
+        <v>0.02205103377489917</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4378713333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.313614</v>
+      </c>
+      <c r="I16">
+        <v>0.3865237187563814</v>
+      </c>
+      <c r="J16">
+        <v>0.3865237187563814</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.04976133333333</v>
+      </c>
+      <c r="N16">
+        <v>39.14928399999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="P16">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="Q16">
+        <v>5.714116394708443</v>
+      </c>
+      <c r="R16">
+        <v>51.42704755237599</v>
+      </c>
+      <c r="S16">
+        <v>0.04413044456459812</v>
+      </c>
+      <c r="T16">
+        <v>0.04413044456459812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.013715</v>
+      </c>
+      <c r="H17">
+        <v>0.041145</v>
+      </c>
+      <c r="I17">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J17">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.293805</v>
+      </c>
+      <c r="N17">
+        <v>102.881415</v>
+      </c>
+      <c r="O17">
+        <v>0.3000373067112135</v>
+      </c>
+      <c r="P17">
+        <v>0.3000373067112135</v>
+      </c>
+      <c r="Q17">
+        <v>0.470339535575</v>
+      </c>
+      <c r="R17">
+        <v>4.233055820174999</v>
+      </c>
+      <c r="S17">
+        <v>0.003632458873335644</v>
+      </c>
+      <c r="T17">
+        <v>0.003632458873335644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.013715</v>
+      </c>
+      <c r="H18">
+        <v>0.041145</v>
+      </c>
+      <c r="I18">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J18">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>27.62253466666667</v>
+      </c>
+      <c r="N18">
+        <v>82.867604</v>
+      </c>
+      <c r="O18">
+        <v>0.2416702056223797</v>
+      </c>
+      <c r="P18">
+        <v>0.2416702056223798</v>
+      </c>
+      <c r="Q18">
+        <v>0.3788430629533333</v>
+      </c>
+      <c r="R18">
+        <v>3.40958756658</v>
+      </c>
+      <c r="S18">
+        <v>0.002925826432906899</v>
+      </c>
+      <c r="T18">
+        <v>0.002925826432906899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.2484573333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.7453719999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.2453693599385072</v>
-      </c>
-      <c r="J16">
-        <v>0.2453693599385072</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>17.41884833333333</v>
-      </c>
-      <c r="N16">
-        <v>52.256545</v>
-      </c>
-      <c r="O16">
-        <v>0.1797523871334833</v>
-      </c>
-      <c r="P16">
-        <v>0.1797523871334834</v>
-      </c>
-      <c r="Q16">
-        <v>4.327840606637777</v>
-      </c>
-      <c r="R16">
-        <v>38.95056545974</v>
-      </c>
-      <c r="S16">
-        <v>0.04410572817836156</v>
-      </c>
-      <c r="T16">
-        <v>0.04410572817836158</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.013715</v>
+      </c>
+      <c r="H19">
+        <v>0.041145</v>
+      </c>
+      <c r="I19">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J19">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.81168366666667</v>
+      </c>
+      <c r="N19">
+        <v>98.435051</v>
+      </c>
+      <c r="O19">
+        <v>0.2870701922987834</v>
+      </c>
+      <c r="P19">
+        <v>0.2870701922987835</v>
+      </c>
+      <c r="Q19">
+        <v>0.4500122414883334</v>
+      </c>
+      <c r="R19">
+        <v>4.050110173395</v>
+      </c>
+      <c r="S19">
+        <v>0.003475470029763847</v>
+      </c>
+      <c r="T19">
+        <v>0.003475470029763847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.013715</v>
+      </c>
+      <c r="H20">
+        <v>0.041145</v>
+      </c>
+      <c r="I20">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J20">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.520685</v>
+      </c>
+      <c r="N20">
+        <v>19.562055</v>
+      </c>
+      <c r="O20">
+        <v>0.05704962646496092</v>
+      </c>
+      <c r="P20">
+        <v>0.05704962646496093</v>
+      </c>
+      <c r="Q20">
+        <v>0.089431194775</v>
+      </c>
+      <c r="R20">
+        <v>0.8048807529750001</v>
+      </c>
+      <c r="S20">
+        <v>0.000690682182641344</v>
+      </c>
+      <c r="T20">
+        <v>0.000690682182641344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.013715</v>
+      </c>
+      <c r="H21">
+        <v>0.041145</v>
+      </c>
+      <c r="I21">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J21">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.04976133333333</v>
+      </c>
+      <c r="N21">
+        <v>39.14928399999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="P21">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="Q21">
+        <v>0.1789774766866666</v>
+      </c>
+      <c r="R21">
+        <v>1.61079729018</v>
+      </c>
+      <c r="S21">
+        <v>0.001382253189757714</v>
+      </c>
+      <c r="T21">
+        <v>0.001382253189757714</v>
       </c>
     </row>
   </sheetData>
